--- a/templates/community/CMML/MTH00029-swate-template.xlsx
+++ b/templates/community/CMML/MTH00029-swate-template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/gitlab_dataplant/CMML/CMML-protocols/MTH00029/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9C732-1523-6D48-803A-A00234BA766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD6B13-E7C9-1D4F-8A5C-964FBB59C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21560" yWindow="-21100" windowWidth="34220" windowHeight="19740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23860" yWindow="-21100" windowWidth="34220" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH00029" sheetId="3" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,179 +34,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}</author>
-    <author>tc={B92A4857-C13E-4E51-8054-4C16283480AA}</author>
-    <author>tc={706F8ADA-2848-459E-96FA-C8124A3DE149}</author>
-    <author>tc={724E12A0-D147-4F23-9431-AA84655B2004}</author>
-    <author>tc={8F73237F-4B77-46AE-A6E2-07472B599914}</author>
-    <author>tc={E9EE0660-C686-4D2F-8C9C-54531867DB56}</author>
-    <author>tc={A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}</author>
-    <author>tc={5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}</author>
-    <author>tc={4D4D0C14-DC90-4096-A1E3-640F48635E0A}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The unique identifier of this template. It will be auto generated.
-Reply:
-    id=b80a7c05-d6eb-428d-b843-bceeb76af642</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{B92A4857-C13E-4E51-8054-4C16283480AA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The name of the Swate template.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{706F8ADA-2848-459E-96FA-C8124A3DE149}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The current version of this template in SemVer notation.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{724E12A0-D147-4F23-9431-AA84655B2004}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The description of this template. Use few sentences for succinctness.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8F73237F-4B77-46AE-A6E2-07472B599914}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{E9EE0660-C686-4D2F-8C9C-54531867DB56}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{4D4D0C14-DC90-4096-A1E3-640F48635E0A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The author(s) of this template.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
@@ -351,9 +178,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>b80a7c05-d6eb-428d-b843-bceeb76af642</t>
-  </si>
-  <si>
     <t>annotationTableSpottyDog46</t>
   </si>
   <si>
@@ -592,6 +416,9 @@
   </si>
   <si>
     <t>70 °C for 2 min; ramped at 12.5 °C per min to 320 °C; held constant for 5 min; total run time 27 min</t>
+  </si>
+  <si>
+    <t>f58a5d85-3472-4704-a7dc-9f66a4f45ad7</t>
   </si>
 </sst>
 </file>
@@ -740,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -754,28 +581,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,81 +606,156 @@
   </cellStyles>
   <dxfs count="53">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -865,81 +763,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,10 +789,10 @@
   <autoFilter ref="A1:BO2" xr:uid="{2E30BA4F-E9C9-DE40-89B6-AAAB546A3F1A}"/>
   <tableColumns count="67">
     <tableColumn id="1" xr3:uid="{74920F3D-F87B-A84B-A8E3-FA33B37EF447}" name="Source Name"/>
-    <tableColumn id="42" xr3:uid="{23C106E3-0D12-5B48-8797-981CCD90D5B3}" name="Protocol Type" dataDxfId="27"/>
-    <tableColumn id="41" xr3:uid="{62E91479-7C00-7E4D-A817-B1A473998AA9}" name="Term Source REF (DPBO:1000161)" dataDxfId="26"/>
-    <tableColumn id="40" xr3:uid="{FE2D9887-E4A1-4146-B606-DF603146878F}" name="Term Accession Number (DPBO:1000161)" dataDxfId="25"/>
-    <tableColumn id="67" xr3:uid="{207CCBB7-1722-584B-87CD-12A8F7EF8864}" name="Protocol REF" dataDxfId="0"/>
+    <tableColumn id="42" xr3:uid="{23C106E3-0D12-5B48-8797-981CCD90D5B3}" name="Protocol Type" dataDxfId="52"/>
+    <tableColumn id="41" xr3:uid="{62E91479-7C00-7E4D-A817-B1A473998AA9}" name="Term Source REF (DPBO:1000161)" dataDxfId="51"/>
+    <tableColumn id="40" xr3:uid="{FE2D9887-E4A1-4146-B606-DF603146878F}" name="Term Accession Number (DPBO:1000161)" dataDxfId="50"/>
+    <tableColumn id="67" xr3:uid="{207CCBB7-1722-584B-87CD-12A8F7EF8864}" name="Protocol REF" dataDxfId="49"/>
     <tableColumn id="39" xr3:uid="{897FDE89-C1DC-5045-95AC-BC614456656B}" name="Parameter [MS sample post-extraction] "/>
     <tableColumn id="38" xr3:uid="{16A53417-C7AF-5242-9C95-6EA25826CE3C}" name="Term Source REF (DPBO:0000043)"/>
     <tableColumn id="37" xr3:uid="{63A0EB76-1575-9145-8742-1A9A3B3E4B86}" name="Term Accession Number (DPBO:0000043)"/>
@@ -982,55 +805,55 @@
     <tableColumn id="30" xr3:uid="{879A2E07-1326-E94D-8A8E-85C3330A9DD0}" name="Parameter [MS derivatization] "/>
     <tableColumn id="29" xr3:uid="{3A1F1225-E2A8-604C-876D-C4AA4FD6DCB0}" name="Term Source REF (DPBO:0000052)"/>
     <tableColumn id="28" xr3:uid="{59EE5003-940D-664A-87B4-2CA9E0467D34}" name="Term Accession Number (DPBO:0000052)"/>
-    <tableColumn id="3" xr3:uid="{5B25D64A-827E-5048-A80A-5A2890F4EAFE}" name="Parameter [chromatography instrument model]" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{E9CC78A1-3868-0943-B651-AD2D6646640C}" name="Term Source REF (DPBO:0000046)" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{3112BC83-BD82-DD44-AECA-9FD067D00FD4}" name="Term Accession Number (DPBO:0000046)" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{9C63D2D5-BF62-BB4D-8E91-1E2E16E745DB}" name="Parameter [chromatography autosampler model]" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00EBCF68-69E8-1B40-8253-73B887950BC8}" name="Term Source REF (DPBO:0000047)" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{E071DF17-D90D-0148-8FEF-4C935DDE7594}" name="Term Accession Number (DPBO:0000047)" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{3FD40719-78BB-A84C-BA6A-D436A9399439}" name="Parameter [chromatography column type]" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{622AF10F-EC4B-7F4A-8656-087FA902988B}" name="Term Source REF (DPBO:0000053)" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{54698704-99EC-514C-A9D1-055DD9B1CBDA}" name="Term Accession Number (DPBO:0000053)" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{1BA8A7BC-8008-6246-A616-C0005F74E81C}" name="Parameter [chromatography column model]" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{21E59CE5-7BDB-0E4B-BE55-D48307ABAD22}" name="Term Source REF (DPBO:0000048)" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{AEEA7ED1-B4E9-7147-9254-7C10D79FB0CF}" name="Term Accession Number (DPBO:0000048)" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{D901366C-017E-7544-85B1-76412D9B63B8}" name="Parameter [mobile phase]" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{F3EF6DDB-A20A-0141-9630-7CC019C49CF6}" name="Term Source REF ()" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{17226D17-0DCB-FE49-8514-41300C4202B7}" name="Term Accession Number ()" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{975F588B-D24D-E540-84C7-85D3CA955C56}" name="Parameter [chromatography injection volume]" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{547D81F1-5AFD-4745-B19E-92E84F4844F8}" name="Unit" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{E712B365-8ED4-C94B-8A94-BFAB582A0176}" name="Term Source REF (DPBO:0010014)" dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{CE6094EA-2656-874B-A7D3-6FC42ABF8599}" name="Term Accession Number (DPBO:0010014)" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{409E31BB-A86C-7F46-902D-D3B427977F70}" name="Parameter [chromatography injection mode]" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{FD27A7F0-6954-F640-B764-A74602A9C08F}" name="Term Source REF (DPBO:0010015)" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{F7E88F27-A1A4-9E4E-B758-E21FCC681F2A}" name="Term Accession Number (DPBO:0010015)" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{31346857-09DE-B04B-AC6B-4D9C20085B0A}" name="Parameter [chromatography gradient]" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{393218EA-43C4-1740-8C1F-9579284174BF}" name="Term Source REF (DPBO:0000081)" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{A7303F5B-173D-544C-9047-134FA8F607CB}" name="Term Accession Number (DPBO:0000081)" dataDxfId="28"/>
-    <tableColumn id="66" xr3:uid="{EA2D7A3E-CF87-8548-8341-2FDCF4FEB6F3}" name="Parameter [scan polarity]" dataDxfId="3"/>
-    <tableColumn id="65" xr3:uid="{63BB6B68-EC6B-D44A-95E2-18AFB98F1D23}" name="Term Source REF (MS:1000465)" dataDxfId="4"/>
-    <tableColumn id="64" xr3:uid="{094AB0A0-8B4B-4840-9510-A07999E48CD7}" name="Term Accession Number (MS:1000465)" dataDxfId="5"/>
-    <tableColumn id="63" xr3:uid="{BC79F198-BFA1-DA4E-B26E-68B1FEA3EDA0}" name="Parameter [scan window lower limit]" dataDxfId="2"/>
-    <tableColumn id="62" xr3:uid="{D145BD54-C58A-D34B-BC61-32797758E9F5}" name="Term Source REF (MS:1000501)" dataDxfId="6"/>
-    <tableColumn id="61" xr3:uid="{F587C694-8A10-7B46-BD9A-3251CC4B84D6}" name="Term Accession Number (MS:1000501)" dataDxfId="7"/>
-    <tableColumn id="60" xr3:uid="{4B6AFCE1-EE3E-7B48-B781-744B51BDD539}" name="Parameter [scan window upper limit]" dataDxfId="1"/>
-    <tableColumn id="59" xr3:uid="{77AC546B-1732-CE44-BC3E-BBDC375710A9}" name="Term Source REF (MS:1000500)" dataDxfId="8"/>
-    <tableColumn id="58" xr3:uid="{FACF3387-148B-4D48-A32A-87A5938011AA}" name="Term Accession Number (MS:1000500)" dataDxfId="9"/>
-    <tableColumn id="57" xr3:uid="{D0AA077A-2081-1E43-B1F1-A0FE52DFC2DE}" name="Component [instrument model]" dataDxfId="10"/>
-    <tableColumn id="56" xr3:uid="{1AFEDE93-B27C-BF49-85B0-6F1C2391C2B3}" name="Term Source REF (MS:1000031) " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{5B25D64A-827E-5048-A80A-5A2890F4EAFE}" name="Parameter [chromatography instrument model]" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{E9CC78A1-3868-0943-B651-AD2D6646640C}" name="Term Source REF (DPBO:0000046)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{3112BC83-BD82-DD44-AECA-9FD067D00FD4}" name="Term Accession Number (DPBO:0000046)" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{9C63D2D5-BF62-BB4D-8E91-1E2E16E745DB}" name="Parameter [chromatography autosampler model]" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{00EBCF68-69E8-1B40-8253-73B887950BC8}" name="Term Source REF (DPBO:0000047)" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{E071DF17-D90D-0148-8FEF-4C935DDE7594}" name="Term Accession Number (DPBO:0000047)" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{3FD40719-78BB-A84C-BA6A-D436A9399439}" name="Parameter [chromatography column type]" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{622AF10F-EC4B-7F4A-8656-087FA902988B}" name="Term Source REF (DPBO:0000053)" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{54698704-99EC-514C-A9D1-055DD9B1CBDA}" name="Term Accession Number (DPBO:0000053)" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{1BA8A7BC-8008-6246-A616-C0005F74E81C}" name="Parameter [chromatography column model]" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{21E59CE5-7BDB-0E4B-BE55-D48307ABAD22}" name="Term Source REF (DPBO:0000048)" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{AEEA7ED1-B4E9-7147-9254-7C10D79FB0CF}" name="Term Accession Number (DPBO:0000048)" dataDxfId="37"/>
+    <tableColumn id="15" xr3:uid="{D901366C-017E-7544-85B1-76412D9B63B8}" name="Parameter [mobile phase]" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{F3EF6DDB-A20A-0141-9630-7CC019C49CF6}" name="Term Source REF ()" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{17226D17-0DCB-FE49-8514-41300C4202B7}" name="Term Accession Number ()" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{975F588B-D24D-E540-84C7-85D3CA955C56}" name="Parameter [chromatography injection volume]" dataDxfId="33"/>
+    <tableColumn id="19" xr3:uid="{547D81F1-5AFD-4745-B19E-92E84F4844F8}" name="Unit" dataDxfId="32"/>
+    <tableColumn id="20" xr3:uid="{E712B365-8ED4-C94B-8A94-BFAB582A0176}" name="Term Source REF (DPBO:0010014)" dataDxfId="31"/>
+    <tableColumn id="21" xr3:uid="{CE6094EA-2656-874B-A7D3-6FC42ABF8599}" name="Term Accession Number (DPBO:0010014)" dataDxfId="30"/>
+    <tableColumn id="22" xr3:uid="{409E31BB-A86C-7F46-902D-D3B427977F70}" name="Parameter [chromatography injection mode]" dataDxfId="29"/>
+    <tableColumn id="23" xr3:uid="{FD27A7F0-6954-F640-B764-A74602A9C08F}" name="Term Source REF (DPBO:0010015)" dataDxfId="28"/>
+    <tableColumn id="24" xr3:uid="{F7E88F27-A1A4-9E4E-B758-E21FCC681F2A}" name="Term Accession Number (DPBO:0010015)" dataDxfId="27"/>
+    <tableColumn id="25" xr3:uid="{31346857-09DE-B04B-AC6B-4D9C20085B0A}" name="Parameter [chromatography gradient]" dataDxfId="26"/>
+    <tableColumn id="26" xr3:uid="{393218EA-43C4-1740-8C1F-9579284174BF}" name="Term Source REF (DPBO:0000081)" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{A7303F5B-173D-544C-9047-134FA8F607CB}" name="Term Accession Number (DPBO:0000081)" dataDxfId="24"/>
+    <tableColumn id="66" xr3:uid="{EA2D7A3E-CF87-8548-8341-2FDCF4FEB6F3}" name="Parameter [scan polarity]" dataDxfId="23"/>
+    <tableColumn id="65" xr3:uid="{63BB6B68-EC6B-D44A-95E2-18AFB98F1D23}" name="Term Source REF (MS:1000465)" dataDxfId="22"/>
+    <tableColumn id="64" xr3:uid="{094AB0A0-8B4B-4840-9510-A07999E48CD7}" name="Term Accession Number (MS:1000465)" dataDxfId="21"/>
+    <tableColumn id="63" xr3:uid="{BC79F198-BFA1-DA4E-B26E-68B1FEA3EDA0}" name="Parameter [scan window lower limit]" dataDxfId="20"/>
+    <tableColumn id="62" xr3:uid="{D145BD54-C58A-D34B-BC61-32797758E9F5}" name="Term Source REF (MS:1000501)" dataDxfId="19"/>
+    <tableColumn id="61" xr3:uid="{F587C694-8A10-7B46-BD9A-3251CC4B84D6}" name="Term Accession Number (MS:1000501)" dataDxfId="18"/>
+    <tableColumn id="60" xr3:uid="{4B6AFCE1-EE3E-7B48-B781-744B51BDD539}" name="Parameter [scan window upper limit]" dataDxfId="17"/>
+    <tableColumn id="59" xr3:uid="{77AC546B-1732-CE44-BC3E-BBDC375710A9}" name="Term Source REF (MS:1000500)" dataDxfId="16"/>
+    <tableColumn id="58" xr3:uid="{FACF3387-148B-4D48-A32A-87A5938011AA}" name="Term Accession Number (MS:1000500)" dataDxfId="15"/>
+    <tableColumn id="57" xr3:uid="{D0AA077A-2081-1E43-B1F1-A0FE52DFC2DE}" name="Component [instrument model]" dataDxfId="14"/>
+    <tableColumn id="56" xr3:uid="{1AFEDE93-B27C-BF49-85B0-6F1C2391C2B3}" name="Term Source REF (MS:1000031) " dataDxfId="13"/>
     <tableColumn id="55" xr3:uid="{783BD5E0-6B1C-D94E-A022-38B9A0B0F7DB}" name="Term Accession Number (MS:1000031) " dataDxfId="12"/>
-    <tableColumn id="54" xr3:uid="{275CFCE6-8A46-A44E-8DF7-63967FEC3EF5}" name="Parameter [ionization type]" dataDxfId="13"/>
-    <tableColumn id="53" xr3:uid="{21040DFD-E911-8F48-9E11-7B8AA38B7615}" name="Term Source REF (MS:1000008)" dataDxfId="14"/>
-    <tableColumn id="52" xr3:uid="{902AC2D1-8238-174D-B8DD-0103A584B63F}" name="Term Accession Number (MS:1000008)" dataDxfId="15"/>
-    <tableColumn id="51" xr3:uid="{761809FF-3BF9-1247-AAE9-6E12E19CAF60}" name="Parameter [mass analyzer type]" dataDxfId="16"/>
-    <tableColumn id="50" xr3:uid="{876E2828-49DD-6147-91CA-79353AA78D42}" name="Term Source REF (MS:1000443)" dataDxfId="17"/>
-    <tableColumn id="49" xr3:uid="{327A51C6-2D99-DC44-981C-224D25EF6EBB}" name="Term Accession Number (MS:1000443)" dataDxfId="18"/>
-    <tableColumn id="48" xr3:uid="{A9114972-E55C-324B-9D91-DF982005986B}" name="Parameter [detector type]" dataDxfId="19"/>
-    <tableColumn id="47" xr3:uid="{378F53F4-98BB-BC48-81D2-A8A834EB1801}" name="Term Source REF (MS:1000026)" dataDxfId="20"/>
-    <tableColumn id="46" xr3:uid="{17964720-290A-5B49-A494-71D3432D26B3}" name="Term Accession Number (MS:1000026)" dataDxfId="21"/>
-    <tableColumn id="45" xr3:uid="{39D887A1-79C7-0D4A-8F98-13FD52AD1320}" name="Parameter [detector acquisition mode]" dataDxfId="22"/>
-    <tableColumn id="44" xr3:uid="{2DFC68D4-DA73-454C-9418-45917F5F0DCB}" name="Term Source REF (MS:1000027)" dataDxfId="23"/>
-    <tableColumn id="43" xr3:uid="{D133499B-9F1B-B94C-BDD9-29823ECC0B1E}" name="Term Accession Number (MS:1000027)" dataDxfId="24"/>
+    <tableColumn id="54" xr3:uid="{275CFCE6-8A46-A44E-8DF7-63967FEC3EF5}" name="Parameter [ionization type]" dataDxfId="11"/>
+    <tableColumn id="53" xr3:uid="{21040DFD-E911-8F48-9E11-7B8AA38B7615}" name="Term Source REF (MS:1000008)" dataDxfId="10"/>
+    <tableColumn id="52" xr3:uid="{902AC2D1-8238-174D-B8DD-0103A584B63F}" name="Term Accession Number (MS:1000008)" dataDxfId="9"/>
+    <tableColumn id="51" xr3:uid="{761809FF-3BF9-1247-AAE9-6E12E19CAF60}" name="Parameter [mass analyzer type]" dataDxfId="8"/>
+    <tableColumn id="50" xr3:uid="{876E2828-49DD-6147-91CA-79353AA78D42}" name="Term Source REF (MS:1000443)" dataDxfId="7"/>
+    <tableColumn id="49" xr3:uid="{327A51C6-2D99-DC44-981C-224D25EF6EBB}" name="Term Accession Number (MS:1000443)" dataDxfId="6"/>
+    <tableColumn id="48" xr3:uid="{A9114972-E55C-324B-9D91-DF982005986B}" name="Parameter [detector type]" dataDxfId="5"/>
+    <tableColumn id="47" xr3:uid="{378F53F4-98BB-BC48-81D2-A8A834EB1801}" name="Term Source REF (MS:1000026)" dataDxfId="4"/>
+    <tableColumn id="46" xr3:uid="{17964720-290A-5B49-A494-71D3432D26B3}" name="Term Accession Number (MS:1000026)" dataDxfId="3"/>
+    <tableColumn id="45" xr3:uid="{39D887A1-79C7-0D4A-8F98-13FD52AD1320}" name="Parameter [detector acquisition mode]" dataDxfId="2"/>
+    <tableColumn id="44" xr3:uid="{2DFC68D4-DA73-454C-9418-45917F5F0DCB}" name="Term Source REF (MS:1000027)" dataDxfId="1"/>
+    <tableColumn id="43" xr3:uid="{D133499B-9F1B-B94C-BDD9-29823ECC0B1E}" name="Term Accession Number (MS:1000027)" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{5EE2A55D-1A31-6949-B241-1B9D0417B07F}" name="Sample Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1298,47 +1121,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2021-11-03T16:55:23.03" personId="{2B518007-AAA5-437D-AD4B-771F37659DA1}" id="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
-    <text>The unique identifier of this template. It will be auto generated.</text>
-  </threadedComment>
-  <threadedComment ref="A1" dT="2021-11-03T16:55:23.03" personId="{2B518007-AAA5-437D-AD4B-771F37659DA1}" id="{E86439AF-DCCD-4AAE-9ADE-4D9D287E5F82}" parentId="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
-    <text>id=b80a7c05-d6eb-428d-b843-bceeb76af642</text>
-  </threadedComment>
-  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{B92A4857-C13E-4E51-8054-4C16283480AA}">
-    <text>The name of the Swate template.</text>
-  </threadedComment>
-  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{706F8ADA-2848-459E-96FA-C8124A3DE149}">
-    <text>The current version of this template in SemVer notation.</text>
-  </threadedComment>
-  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{724E12A0-D147-4F23-9431-AA84655B2004}">
-    <text>The description of this template. Use few sentences for succinctness.</text>
-  </threadedComment>
-  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{8F73237F-4B77-46AE-A6E2-07472B599914}">
-    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
-  </threadedComment>
-  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{E9EE0660-C686-4D2F-8C9C-54531867DB56}">
-    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
-  </threadedComment>
-  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}">
-    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
-  </threadedComment>
-  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}">
-    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
-  </threadedComment>
-  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{4D4D0C14-DC90-4096-A1E3-640F48635E0A}">
-    <text>The author(s) of this template.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
-  <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1368,16 +1156,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7267C417-F2C1-D64C-AC13-3729A3A4D760}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="12" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="12" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.1640625" hidden="1" customWidth="1"/>
@@ -1390,37 +1178,37 @@
     <col min="14" max="14" width="27.6640625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="36.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="41.33203125" style="13" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="41.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="42.33203125" style="13" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="42.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="36.83203125" style="13" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.33203125" style="13" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="38.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="24.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24" style="13" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="40.5" style="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="40.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30" style="13" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="39" style="13" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="39" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.1640625" style="13" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.5" style="13" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="77" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30" style="13" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="41.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="42.33203125" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.83203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="40.5" style="7" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="39" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="33.5" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="77" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="0.1640625" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27" style="11" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="27" style="5" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="32.6640625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.83203125" style="11" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="36.83203125" style="5" hidden="1" customWidth="1"/>
     <col min="48" max="48" width="32.83203125" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="37" hidden="1" customWidth="1"/>
@@ -1448,127 +1236,127 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>76</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>78</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>79</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>80</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>81</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>82</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" t="s">
         <v>84</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
         <v>116</v>
       </c>
-      <c r="S1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>86</v>
       </c>
-      <c r="U1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>87</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>88</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>89</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>90</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>92</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>93</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>94</v>
       </c>
       <c r="AD1" t="s">
         <v>2</v>
       </c>
       <c r="AE1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" t="s">
-        <v>96</v>
-      </c>
       <c r="AG1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK1" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>111</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>113</v>
       </c>
-      <c r="AN1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>114</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>115</v>
       </c>
       <c r="AQ1" t="s">
         <v>3</v>
@@ -1579,7 +1367,7 @@
       <c r="AS1" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="11" t="s">
+      <c r="AT1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="AU1" t="s">
@@ -1588,7 +1376,7 @@
       <c r="AV1" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AX1" t="s">
@@ -1598,13 +1386,13 @@
         <v>11</v>
       </c>
       <c r="AZ1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA1" t="s">
         <v>97</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>98</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>99</v>
       </c>
       <c r="BC1" t="s">
         <v>12</v>
@@ -1647,158 +1435,158 @@
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
         <v>102</v>
       </c>
-      <c r="G2" t="s">
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>60</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>800</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="14">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="BF2" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT2" s="11">
-        <v>60</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW2" s="11">
-        <v>800</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH2" t="s">
         <v>57</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1810,254 +1598,225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE60A4C1-3019-FE47-A32D-3A048CEF8491}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
+      <c r="B6" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>65</v>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/templates/community/CMML/MTH00029-swate-template.xlsx
+++ b/templates/community/CMML/MTH00029-swate-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/gitlab_dataplant/CMML/CMML-protocols/MTH00029/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/CMML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BD6B13-E7C9-1D4F-8A5C-964FBB59C816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73050D9-67BA-FF44-9931-58BE6AA839C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23860" yWindow="-21100" windowWidth="34220" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>annotationTableSpottyDog46</t>
-  </si>
-  <si>
     <t>Metabolomics</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>f58a5d85-3472-4704-a7dc-9f66a4f45ad7</t>
+  </si>
+  <si>
+    <t>annotationTableWonderfulBear2</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7267C417-F2C1-D64C-AC13-3729A3A4D760}">
   <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1236,127 +1236,127 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
         <v>115</v>
       </c>
-      <c r="S1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>85</v>
       </c>
-      <c r="U1" t="s">
-        <v>116</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>86</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>87</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>88</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>89</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>91</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>92</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>93</v>
       </c>
       <c r="AD1" t="s">
         <v>2</v>
       </c>
       <c r="AE1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" t="s">
-        <v>95</v>
-      </c>
       <c r="AG1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" t="s">
         <v>117</v>
       </c>
-      <c r="AH1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>110</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" t="s">
         <v>118</v>
       </c>
-      <c r="AL1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>113</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>114</v>
       </c>
       <c r="AQ1" t="s">
         <v>3</v>
@@ -1386,13 +1386,13 @@
         <v>11</v>
       </c>
       <c r="AZ1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA1" t="s">
         <v>96</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>97</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>98</v>
       </c>
       <c r="BC1" t="s">
         <v>12</v>
@@ -1436,157 +1436,157 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
         <v>101</v>
       </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>104</v>
-      </c>
       <c r="AE2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AF2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" s="7">
         <v>1</v>
       </c>
       <c r="AH2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI2" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>107</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>108</v>
-      </c>
       <c r="AN2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AQ2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AR2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AT2" s="5">
         <v>60</v>
       </c>
       <c r="AU2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AV2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AW2" s="5">
         <v>800</v>
       </c>
       <c r="AX2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH2" t="s">
         <v>56</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1602,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1618,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1696,13 @@
         <v>35</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,13 +1710,13 @@
         <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1724,13 +1724,13 @@
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1752,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1793,25 +1793,25 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="11"/>
     </row>

--- a/templates/community/CMML/MTH00029-swate-template.xlsx
+++ b/templates/community/CMML/MTH00029-swate-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/CMML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\CMML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73050D9-67BA-FF44-9931-58BE6AA839C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E01CCB-8299-4BFB-9CB7-B6C255F0BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23860" yWindow="-21100" windowWidth="34220" windowHeight="19740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH00029" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="130">
   <si>
     <t>Source Name</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Mass Spectrometry</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17156</t>
-  </si>
-  <si>
     <t>Protocol Type</t>
   </si>
   <si>
@@ -419,6 +416,15 @@
   </si>
   <si>
     <t>annotationTableWonderfulBear2</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
   </si>
 </sst>
 </file>
@@ -601,8 +607,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{9AC74787-D67A-4B33-A1D2-9A84BA6D8808}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="53">
     <dxf>
@@ -778,10 +784,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Oliver Maus" id="{2B518007-AAA5-437D-AD4B-771F37659DA1}" userId="Oliver Maus" providerId="None"/>
-  <person displayName="Kevin F" id="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,60 +1163,60 @@
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="33.1640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="33.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="36.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="41.33203125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="36.109375" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="42.33203125" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="36.83203125" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="36.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.77734375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="38.33203125" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="24.109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="40.5" style="7" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.44140625" style="7" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="40.44140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="30" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="36.109375" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="39" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="33.5" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="33.44140625" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="77" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="30" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="0.1640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="0.109375" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27" style="5" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="32.6640625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.83203125" style="5" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="32.83203125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="36.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="32.77734375" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="32.77734375" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="37" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="28.83203125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.77734375" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="31" hidden="1" customWidth="1"/>
     <col min="54" max="54" width="25.33203125" hidden="1" customWidth="1"/>
     <col min="55" max="55" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -1221,142 +1224,142 @@
     <col min="57" max="57" width="28" hidden="1" customWidth="1"/>
     <col min="58" max="58" width="28" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="31.6640625" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="24.5" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.83203125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="24.44140625" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.77734375" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="34.6640625" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="38.5" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>80</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S1" t="s">
         <v>82</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
         <v>114</v>
       </c>
-      <c r="S1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>84</v>
       </c>
-      <c r="U1" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>85</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>86</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>91</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>92</v>
       </c>
       <c r="AD1" t="s">
         <v>2</v>
       </c>
       <c r="AE1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" t="s">
         <v>93</v>
       </c>
-      <c r="AF1" t="s">
-        <v>94</v>
-      </c>
       <c r="AG1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" t="s">
         <v>116</v>
       </c>
-      <c r="AH1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" t="s">
         <v>117</v>
       </c>
-      <c r="AL1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>111</v>
       </c>
-      <c r="AN1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>112</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>113</v>
       </c>
       <c r="AQ1" t="s">
         <v>3</v>
@@ -1386,13 +1389,13 @@
         <v>11</v>
       </c>
       <c r="AZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>96</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>97</v>
       </c>
       <c r="BC1" t="s">
         <v>12</v>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
@@ -1445,7 +1448,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -1475,43 +1478,43 @@
         <v>54</v>
       </c>
       <c r="R2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
         <v>121</v>
       </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
         <v>102</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>103</v>
       </c>
       <c r="AE2" t="s">
         <v>54</v>
@@ -1523,16 +1526,16 @@
         <v>1</v>
       </c>
       <c r="AH2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI2" t="s">
         <v>105</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>106</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>107</v>
-      </c>
       <c r="AN2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AO2" t="s">
         <v>54</v>
@@ -1568,10 +1571,10 @@
         <v>54</v>
       </c>
       <c r="AZ2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BC2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BD2" t="s">
         <v>50</v>
@@ -1602,96 +1605,96 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1699,13 +1702,13 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1713,33 +1716,27 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1755,61 +1752,61 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>

--- a/templates/community/CMML/MTH00029-swate-template.xlsx
+++ b/templates/community/CMML/MTH00029-swate-template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\CMML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E01CCB-8299-4BFB-9CB7-B6C255F0BC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A309A75-4C4E-48D7-BF18-62FE5ACA8985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MTH00029" sheetId="3" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -781,10 +781,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
